--- a/GenXServiceEngagementCenterApplication/AnalyticalReports/Agent Workload.xlsx
+++ b/GenXServiceEngagementCenterApplication/AnalyticalReports/Agent Workload.xlsx
@@ -174,7 +174,7 @@
         <v>18.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="F2" t="n">
         <v>10.0</v>

--- a/GenXServiceEngagementCenterApplication/AnalyticalReports/Agent Workload.xlsx
+++ b/GenXServiceEngagementCenterApplication/AnalyticalReports/Agent Workload.xlsx
@@ -174,7 +174,7 @@
         <v>18.0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" t="n">
         <v>10.0</v>
